--- a/doc/11. 小组进度日报/7.30.xlsx
+++ b/doc/11. 小组进度日报/7.30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vue\SNS\SNS\doc\11. 小组进度日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1161D7-4095-40F7-AF17-329669AE58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3375B09-99D9-43AA-8A6A-E5DA563E7B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,62 +890,11 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -962,13 +911,64 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:AA177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Q24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1370,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="5"/>
@@ -1428,113 +1428,113 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="40" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="44" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="46" t="s">
         <v>66</v>
       </c>
       <c r="AA4" s="27"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="39"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="35" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47" t="s">
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="45"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="47"/>
       <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1544,17 +1544,17 @@
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="45"/>
       <c r="T6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="45"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:27">
@@ -2333,7 +2333,7 @@
       <c r="L16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="R16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3065,13 +3065,13 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="34">
         <v>1</v>
       </c>
       <c r="D27" s="2"/>
@@ -3100,11 +3100,11 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="36">
         <v>18</v>
       </c>
       <c r="D28" s="2"/>
@@ -3133,11 +3133,11 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="36">
         <f>COUNTIF($L$7:$L$24,"○")</f>
         <v>0</v>
       </c>
@@ -3167,11 +3167,11 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="36">
         <f>COUNTIF($L$7:$L$24,"△")</f>
         <v>0</v>
       </c>
@@ -3201,11 +3201,11 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="36">
         <f>COUNTIF($L$7:$L$24,"△")</f>
         <v>0</v>
       </c>
@@ -3235,11 +3235,11 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="51"/>
-      <c r="B32" s="55" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="34">
         <v>1</v>
       </c>
       <c r="D32" s="2"/>
@@ -3268,11 +3268,11 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="51"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="36">
         <v>18</v>
       </c>
       <c r="D33" s="2"/>
@@ -3301,11 +3301,11 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="36">
         <f>COUNTIF($R$7:$R$24,"○")</f>
         <v>0</v>
       </c>
@@ -3335,11 +3335,11 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="51"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="36">
         <v>0</v>
       </c>
       <c r="D35" s="2"/>
@@ -3368,11 +3368,11 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="36">
         <f>COUNTIF($L$7:$L$24,"△")</f>
         <v>0</v>
       </c>
@@ -3402,11 +3402,11 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="41">
         <f>E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24</f>
         <v>24</v>
       </c>
@@ -7503,6 +7503,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="22">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="Z4:Z6"/>
@@ -7519,12 +7525,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7533,25 +7533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -7563,26 +7544,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>